--- a/TestDoc/TestReport/DBR8.2.5TestReport.xlsx
+++ b/TestDoc/TestReport/DBR8.2.5TestReport.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26205" windowHeight="10245"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="2" r:id="rId1"/>
     <sheet name="Public&amp;PrivateTrialKeyTestcases" sheetId="1" r:id="rId2"/>
     <sheet name="Risk" sheetId="3" r:id="rId3"/>
+    <sheet name="BugsID Work Item Type Title Ass" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>TestItems</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>两轮测试：当前状态为没有使用LTS另外setting下demo的设计有点复杂</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Website Test</t>
@@ -326,6 +330,114 @@
   </si>
   <si>
     <t>用户在购买了dwt后通过privatekey评估dbr独立产品，消耗数据会走到dwt已购买项下</t>
+  </si>
+  <si>
+    <t>per browser的deployment方式不适用于js产品的node部分，node因为是一个server，所以用户需要适用per server的license。
+-这样一来邮件系统会出现购买license与指向source发生不匹配的问题</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>http://localhost/E/TFS/Products/dbr-browser-samples-master/2.ui-tweaking/3.difference-video-size.html 在chrome全屏下切换很多时候失败</t>
+  </si>
+  <si>
+    <t>3.settings/settings-barcodeFormats-expectedBarcodes.html确认是否做成下面效果</t>
+  </si>
+  <si>
+    <t>license过期的情况下需要增加一个过期的tag</t>
+  </si>
+  <si>
+    <t>public:使用两个不存在的lts server之后应该走timeout的报错</t>
+  </si>
+  <si>
+    <r>
+      <t>public license</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Valid [Cached] License Disconnected to LTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个情况重复跳了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>warning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹框</t>
+    </r>
+  </si>
+  <si>
+    <t>public： Expired [Cached] License Disconnected to LTS情形下重复出现了error和warnig弹框，去掉error弹框</t>
+  </si>
+  <si>
+    <t>public：LTS链接成功但是出现111过期之外的错误校验的情形下都会重复弹框</t>
+  </si>
+  <si>
+    <t>seeting中的大部分sample以localizationModes-binarizationModes.html这个sample 为例setting里面的设计和实现都有待改进</t>
+  </si>
+  <si>
+    <t>不存在4.regionOfInterest-regionPredetection.html</t>
+  </si>
+  <si>
+    <t>update setting 的实现很粗糙</t>
+  </si>
+  <si>
+    <t>angular sample show video之后按钮全屏显示了且sourcelist消失</t>
   </si>
 </sst>
 </file>
@@ -333,18 +445,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF106EBE"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -378,6 +509,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -386,45 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -433,44 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -479,13 +624,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -493,13 +631,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +645,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,61 +675,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,109 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +889,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,15 +948,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,45 +967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -829,15 +978,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,157 +996,178 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1333,146 +1503,146 @@
     <col min="2" max="2" width="102.714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
+      <c r="C9" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1487,7 +1657,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -1503,464 +1673,464 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="90" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="135" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="105" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="105" spans="1:7">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="90" spans="1:7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="150" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="75" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="135" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="C10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G10" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="90" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="105" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:7">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="90" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:7">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="150" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="90" spans="1:7">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="60" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="1:7">
+      <c r="A16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="75" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="G16" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="90" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="D17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="60" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="G17" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="135" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="60" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="60" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="90" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="90" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" ht="60" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" ht="75" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="F22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" ht="135" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="60" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" ht="60" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="30" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" ht="90" spans="1:7">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1978,29 +2148,164 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="106.285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="132.428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="2">
+        <v>20487</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:2">
+      <c r="A3" s="4">
+        <v>20488</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>20654</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>23374</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>23376</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>23377</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>23378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:2">
+      <c r="A9" s="4">
+        <v>23446</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>23447</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>23449</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>23503</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="20487" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/20487"/>
+    <hyperlink ref="A3" r:id="rId2" display="20488" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/20488"/>
+    <hyperlink ref="A4" r:id="rId3" display="20654" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/20654"/>
+    <hyperlink ref="A5" r:id="rId4" display="23374" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23374"/>
+    <hyperlink ref="A6" r:id="rId5" display="23376" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23376"/>
+    <hyperlink ref="A7" r:id="rId6" display="23377" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23377"/>
+    <hyperlink ref="A8" r:id="rId7" display="23378" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23378"/>
+    <hyperlink ref="A9" r:id="rId8" display="23446" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23446"/>
+    <hyperlink ref="A10" r:id="rId9" display="23447" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23447"/>
+    <hyperlink ref="A11" r:id="rId10" display="23449" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23449"/>
+    <hyperlink ref="A12" r:id="rId11" display="23503" tooltip="https://officecn.dynamsoft.com:4433/tfs/DefaultCollection/Products/DBR_JS/_workitems/edit/23503"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>